--- a/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/synthetic_methane_gas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB674AD-C5A9-41DA-ACDD-E3C340D9877C}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7900F54E-822C-4E1D-B322-F3ADD579AAE0}"/>
   <bookViews>
-    <workbookView xWindow="-19845" yWindow="-20430" windowWidth="32535" windowHeight="17625" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -444,12 +444,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -459,6 +453,12 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,8 +508,8 @@
     <tableColumn id="37" xr3:uid="{FF4178F5-A47B-4920-A52E-1B3F85F074B2}" name="minimum_op_point_Input2"/>
     <tableColumn id="38" xr3:uid="{025B798B-AEA0-4557-A1C1-691EF0E57AB5}" name="minimum_op_point_Output1"/>
     <tableColumn id="39" xr3:uid="{35A52A69-E8FB-4298-8F4F-F2BB77F81158}" name="minimum_op_point_Output2"/>
-    <tableColumn id="40" xr3:uid="{13D3F1BD-DB2E-4B88-B660-2F6A81616F69}" name="resolution_output" dataDxfId="1"/>
-    <tableColumn id="41" xr3:uid="{8CF0CBE3-C92A-4542-8737-317CCD5CF213}" name="demand" dataDxfId="0"/>
+    <tableColumn id="40" xr3:uid="{13D3F1BD-DB2E-4B88-B660-2F6A81616F69}" name="resolution_output" dataDxfId="3"/>
+    <tableColumn id="41" xr3:uid="{8CF0CBE3-C92A-4542-8737-317CCD5CF213}" name="demand" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -524,7 +524,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Input2"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output1"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Output2" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Connection_type"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_existing"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input1_max"/>
@@ -554,7 +554,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
   <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
@@ -879,11 +879,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>

--- a/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7900F54E-822C-4E1D-B322-F3ADD579AAE0}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33706492-D78B-4832-943A-640564A345D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="2115" yWindow="-17715" windowWidth="25485" windowHeight="15000" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>Unit</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>minimum_op_point_Output2</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -408,12 +411,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -428,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -438,6 +447,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,9 +526,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:Z5" totalsRowShown="0">
-  <autoFilter ref="A1:Z5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AA5" totalsRowShown="0">
+  <autoFilter ref="A1:AA5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input1"/>
@@ -545,6 +555,7 @@
     <tableColumn id="26" xr3:uid="{BBB71EDD-0EC0-477F-903A-3BF251C590FC}" name="vom_cost_Output2"/>
     <tableColumn id="27" xr3:uid="{65A6FC97-CBF5-4192-8668-F1903C17C1F5}" name="connection_investment_tech_lifetime"/>
     <tableColumn id="28" xr3:uid="{6C87744B-3FF9-44BB-9394-82EE6DD0EE4E}" name="initial_connections_invested_available"/>
+    <tableColumn id="12" xr3:uid="{86FCF94A-62C6-4AAA-98E6-ACFA2E6930BE}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,9 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1023,9 +1032,6 @@
       <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="W2">
-        <v>1.29</v>
-      </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
@@ -1048,19 +1054,21 @@
       <c r="F3" t="s">
         <v>81</v>
       </c>
-      <c r="L3">
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+      <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="N3">
+      <c r="U3">
         <v>1.76</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>4.34</v>
       </c>
-      <c r="X3">
-        <v>0.02</v>
-      </c>
-      <c r="Y3" s="1"/>
+      <c r="Y3">
+        <v>1.4865951742627345E-3</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="3"/>
       <c r="AB3">
@@ -1070,7 +1078,7 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
@@ -1093,7 +1101,7 @@
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
@@ -1119,7 +1127,7 @@
       <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
@@ -1160,17 +1168,19 @@
       <c r="E7" t="s">
         <v>93</v>
       </c>
-      <c r="L7">
+      <c r="S7">
         <v>7.2437800000000002E-4</v>
       </c>
-      <c r="M7">
+      <c r="T7">
         <v>0.99</v>
       </c>
-      <c r="S7">
-        <v>0.11929223744292237</v>
+      <c r="W7">
+        <v>0.11929223999999999</v>
       </c>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <v>1.4865950000000001E-3</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="3"/>
       <c r="AF7" s="1"/>
@@ -1192,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1221,7 +1231,7 @@
     <col min="26" max="26" width="37.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1300,8 +1310,11 @@
       <c r="Z1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1347,20 +1360,20 @@
       <c r="O2">
         <v>1000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1400,21 +1413,24 @@
       <c r="N3">
         <v>1000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.88</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="U3">
+        <v>7.2835616438356163E-2</v>
+      </c>
+      <c r="Z3" t="s">
         <v>62</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
@@ -1435,38 +1451,8 @@
       <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="Q4">
-        <v>0.99983999999999995</v>
-      </c>
-      <c r="S4">
-        <v>0.99983999999999995</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1494,13 +1480,13 @@
       <c r="M5">
         <v>1000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>59</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1</v>
       </c>
     </row>
@@ -1517,12 +1503,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
@@ -1595,7 +1583,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">

--- a/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33706492-D78B-4832-943A-640564A345D3}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4422D62E-0905-4B50-8619-E6A97DFC46DB}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="-17715" windowWidth="25485" windowHeight="15000" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>Unit</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>value_before</t>
-  </si>
-  <si>
-    <t>value_start</t>
   </si>
   <si>
     <t>Relation_Out_In</t>
@@ -562,13 +559,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K5" totalsRowShown="0">
-  <autoFilter ref="A1:K5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:J5" totalsRowShown="0">
+  <autoFilter ref="A1:J5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="Object_type"/>
     <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_before"/>
-    <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="value_start"/>
     <tableColumn id="2" xr3:uid="{1FB70133-79C8-41A8-BCD5-AC8AA5856E5B}" name="has_state"/>
     <tableColumn id="3" xr3:uid="{11AD2EA9-CE36-4CCE-8F89-387EFE0D8EED}" name="node_state_cap"/>
     <tableColumn id="7" xr3:uid="{FDFFF561-E931-46C6-8D90-30C5BF9CB9E9}" name="frac_state_loss"/>
@@ -926,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -941,40 +937,40 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
       <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
         <v>95</v>
-      </c>
-      <c r="R1" t="s">
-        <v>96</v>
       </c>
       <c r="S1" t="s">
         <v>15</v>
@@ -986,73 +982,73 @@
         <v>16</v>
       </c>
       <c r="V1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>45</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1079,19 +1075,19 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1102,22 +1098,22 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="4"/>
@@ -1128,22 +1124,22 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1154,19 +1150,19 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
       </c>
       <c r="S7">
         <v>7.2437800000000002E-4</v>
@@ -1236,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1287,54 +1283,54 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1367,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1375,25 +1371,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1423,7 +1419,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -1431,42 +1427,42 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>81</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1484,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1501,111 +1497,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5478.6764505058327</v>
+      </c>
       <c r="F2">
-        <v>5478.6764505058327</v>
-      </c>
-      <c r="G2">
         <v>4.147E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2">
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3">
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 E2:E3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1628,92 +1618,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4422D62E-0905-4B50-8619-E6A97DFC46DB}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F156C664-EB7A-4138-998A-EF0721A633E2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>Unit</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>initial_units_on</t>
   </si>
 </sst>
 </file>
@@ -481,9 +484,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AG7" totalsRowShown="0">
-  <autoFilter ref="A1:AG7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AH7" totalsRowShown="0">
+  <autoFilter ref="A1:AH7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Object_type"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input1"/>
@@ -517,6 +520,7 @@
     <tableColumn id="39" xr3:uid="{35A52A69-E8FB-4298-8F4F-F2BB77F81158}" name="minimum_op_point_Output2"/>
     <tableColumn id="40" xr3:uid="{13D3F1BD-DB2E-4B88-B660-2F6A81616F69}" name="resolution_output" dataDxfId="3"/>
     <tableColumn id="41" xr3:uid="{8CF0CBE3-C92A-4542-8737-317CCD5CF213}" name="demand" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{67AC62F1-20D0-460D-AB19-8D9D0208B920}" name="initial_units_on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,9 +888,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -917,7 +921,7 @@
     <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,8 +1021,11 @@
       <c r="AG1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1031,7 +1038,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1073,7 +1080,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -1096,7 +1103,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1122,7 +1129,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1136,19 +1143,21 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
         <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="3"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AG6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1499,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methane/Model_Data_Base_methane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F156C664-EB7A-4138-998A-EF0721A633E2}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{F150E804-DDA9-4EB4-B6B4-76CF44ACC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006925DB-91CF-498B-9743-760CE5E2272F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>Unit</t>
   </si>
@@ -315,9 +315,6 @@
     <t>pl_dh</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>dh</t>
   </si>
   <si>
@@ -379,6 +376,24 @@
   </si>
   <si>
     <t>initial_units_on</t>
+  </si>
+  <si>
+    <t>heat_split</t>
+  </si>
+  <si>
+    <t>Auxilliary</t>
+  </si>
+  <si>
+    <t>heat_high</t>
+  </si>
+  <si>
+    <t>internal_heat</t>
+  </si>
+  <si>
+    <t>heat_low</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
   </si>
 </sst>
 </file>
@@ -483,6 +498,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AH7" totalsRowShown="0">
   <autoFilter ref="A1:AH7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
@@ -582,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A18" totalsRowShown="0">
-  <autoFilter ref="A1:A18" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}" name="Table4" displayName="Table4" ref="A1:A19" totalsRowShown="0">
+  <autoFilter ref="A1:A19" xr:uid="{F60E0718-CF3D-46DE-ABAE-954431E3B623}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{92FD8766-2E9E-48CC-B065-131067C79BF9}" name="object_type"/>
   </tableColumns>
@@ -888,9 +907,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -921,7 +940,7 @@
     <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,10 +990,10 @@
         <v>39</v>
       </c>
       <c r="Q1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
         <v>94</v>
-      </c>
-      <c r="R1" t="s">
-        <v>95</v>
       </c>
       <c r="S1" t="s">
         <v>15</v>
@@ -1004,16 +1023,16 @@
         <v>29</v>
       </c>
       <c r="AB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>98</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>99</v>
       </c>
       <c r="AF1" t="s">
         <v>44</v>
@@ -1022,40 +1041,40 @@
         <v>45</v>
       </c>
       <c r="AH1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1080,7 +1099,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1107,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -1103,7 +1122,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1114,13 +1133,13 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="4"/>
@@ -1129,7 +1148,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1140,13 +1159,13 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1157,21 +1176,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
         <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
       </c>
       <c r="S7">
         <v>7.2437800000000002E-4</v>
@@ -1191,10 +1210,32 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8">
+        <v>0.4</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X7 AF2:AF7" xr:uid="{ED867B80-C728-4873-8D4D-BAB1E8AB7F30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X7 AF2:AF7 AI8" xr:uid="{ED867B80-C728-4873-8D4D-BAB1E8AB7F30}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1209,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1313,10 +1354,10 @@
         <v>41</v>
       </c>
       <c r="Z1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -1327,16 +1368,16 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -1386,16 +1427,16 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>60</v>
@@ -1442,13 +1483,13 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>74</v>
@@ -1465,10 +1506,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>
@@ -1617,11 +1658,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F682EA3-CCEB-45E2-AC25-979810840C6C}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1713,6 +1752,11 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
